--- a/output/output_partitions/result_0.xlsx
+++ b/output/output_partitions/result_0.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -631,7 +631,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>https://www.amazon.de/fenjal-Classic-Antitranspirant-Zerst%C3%A4uber-Pumpspray/dp/B08MF8ZW2Q</t>
         </is>
       </c>
     </row>
@@ -784,6 +784,894 @@
       <c r="H9" t="inlineStr">
         <is>
           <t>https://www.amazon.de/Goodma-Mini-Aufbewahrungsboxen-transparentem-Scharnierdeckel-Bastelprojekte/dp/B0C147VZCB</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>10134101</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>条纹种植盆 ⌀15x14厘米</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Plant pot stripe ⌀15x14cm</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Pot de fleurs rayé ⌀15x14cm</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Blumentopf Streifen ⌀15x14cm</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Plant pot stripe ⌀15x14cm</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>amazon.de</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10134114</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Poly Palette密集染发膏01-0/900黑色</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Poly Palette Intensive Cream Color 01-0/900 Black</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Poly Palette Intensive Crème Couleur 01-0/900 Noir</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Poly Palette Intensiv Creme Coloration 01-0/900 Schwarz</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Poly Palette Intensive Cream Color 01-0/900 Black</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>amazon.de</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>https://www.amazon.de/Palette-Intensiv-Creme-Coloration-Schwarz/dp/B01NA0BFSR</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>10145403</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Mara Expert舌部凝胶</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Mara Expert Tongue Gel</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Gel pour la langue Mara Expert</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Mara Expert Zungengel</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Mara Expert Tongue Gel</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>amazon.de</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>https://www.amazon.de/MARA-EXPERT-medizinisches-Antibakteriell-Zungenreiniger/dp/B09K5KP5B4</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>10113057</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Mara Expert牙菌斑检测套装 镜子+探针 2件</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Mara Expert Plaque Detection Kit Mirror + Probe 2 Pieces</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Kit de détection de plaque dentaire Mara Expert Miroir + Sonde 2 pièces</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Mara Expert Plaque Detection Kit Spiegel + Sonde 2-teilig</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Mara Expert Plaque Detection Kit Spiegel + Sonde 2 Stuks</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>amazon.de</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>https://www.amazon.de/PLAQUE-CHECKER-Professional-Professionelle-Zahnreinigung/dp/B07QQKN2GM</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>10117676</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Mara Expert ISO 2高级牙间刷 8支 红色 8 支</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Mara Expert ISO 2 Advanced Interdental Brushes 8 Pack Red 8 Pack</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Brossettes interdentaires Mara Expert ISO 2 Advanced, lot de 8, rouge, lot de 8</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Mara Expert ISO 2 Advanced Interdentalbürsten, 8er-Pack, Rot, 8 Stück</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Mara Expert ISO 2 Geavanceerde Interdentale Borstels 8-Pack Rood 8-Pack</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>amazon.de</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>10130095</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Perfecto 趣味垃圾袋4x15片装</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Perfecto Fun garbage bags 4x15 pieces</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Perfecto Sacs poubelles amusants 4x15 pièces</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Perfecto Lustige Müllsäcke 4x15 Stück</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Perfecto Leuke vuilniszakken 4x15 stuks</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>amazon.de</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>10149200</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Moritz 蛋筒冰淇淋袋装 200克</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Moritz Ice cream cone bag 200g</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Moritz Sachet de cornet de glace 200g</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Moritz Eistüte Beutel 200g</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Moritz IJshoornzak 200g</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>amazon.de</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>10134169</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>DRINKGLAS AS 370ML/12.51OZ</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>DRINKGLAS AS 370ML/12.51OZ</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>VERRE À BOIRE AS 370ML/12.51OZ</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>TRINKGLAS AS 370ML/12.51OZ</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>DRINKGLAS AS 370ML/12.51OZ</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>amazon.de</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>https://www.amazon.de/Trink-Gl%C3%A4ser-sp%C3%BClmaschinenfeste-Wasser-Gl%C3%A4ser-Trink-Becher-066312/dp/B0CSJYTKCY</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>10110617</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>美甲套装（6件装，花卉款）</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Manicure Set (6-Piece, Floral)</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Coffret de manucure (6 pièces, floral)</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Maniküre-Set (6-teilig, floral)</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Manicureset (6-delig, bloemen)</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>amazon.de</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>https://www.amazon.de/Danielle-Creations-Manik%C3%BCre-Set-Tragetasche-6-teilig/dp/B0C14V1Y61</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>10110555</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>一次性女士全棉内裤5条装产孕妇日抛免洗出差旅行纯棉无菌卫生裤 三角内裤 【建议购买大一码】 L</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Disposable Women's Cotton Underwear 5 Pack for Maternity Travel XL</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Lot de 5 sous-vêtements jetables en coton pour femmes, pour voyage maternité, taille XL</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Einweg-Unterhosen für Damen aus Baumwolle, 5er-Pack, für Schwangerschaft und Reisen, XL</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Disposable Women's Cotton Underwear 5 Pack for Maternity Travel XL</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>amazon.de</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>https://www.amazon.de/Einweg-Unterhosen-Damen-Baumwolle-Einwegunterw%C3%A4sche/dp/B07HQMGQ1T</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>10115315</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">深荷缘 </t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>SHY Wo Long: Fallen Dynasty - DE (PS5)</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>SHY Wo Long: Fallen Dynasty - DE (PS5)</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>SHY Wo Long: Fallen Dynasty – DE (PS5)</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>SHY Wo Long: Fallen Dynasty - DE (PS5)</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>amazon.de</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>10110502</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>25米白色晾衣绳</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Clothes Line 25 Meter White</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Wäscheleine 25 Meter Weiß</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>amazon.de</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>https://www.amazon.de/W%C3%A4scheleine-geflochten-rei%C3%9Ffest-Zugkraft-widerstandsf%C3%A4hig/dp/B09RW2DBNH</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>10110495</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>降温宠物碗 2件装</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Cooling pet bowl 2as</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Gamelle rafraîchissante pour animaux de compagnie 2as</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Kühlnapf für Haustiere 2as</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Cooling pet bowl 2as</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>amazon.de</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>10141839</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>食尚 港式蛋挞皮 312g 香港蛋挞皮</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Food Style HongKong Style Tart Shells Pastry 312g Hong Kong Egg Tart Crust</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Food Style Pâte à tartelettes style Hong Kong 312 g</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Food Style Törtchenteig nach Hongkong-Art, 312 g</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Food Style Hongkong-stijl Taartdeeg Gebak 312g Hong Kong Eiertaartbodem</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>amazon.de</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>10133876</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>食尚 日式鸡肉煎饺 240g 鸡肉日式饺子</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Food Style Japanese Chicken Gyoza 240g Chicken Gyoza</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Food Style Japanische Hähnchen-Gyoza 240g</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>amazon.de</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>10243783</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Candy RPEH11A2TCBEX-S - 烘干机 - 11公斤 A++ 独立式</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Candy RPEH11A2TCBEX-S - Tumble Dryer 11kg A++ Front Load White</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Candy RPEH11A2TCBEX-S - Sèche-linge indépendant 11 kg A++ blanc</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Candy RPEH11A2TCBEX-S - Freistehender Trockner 11 kg A++ Weiß</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Candy RPEH11A2TCBEX-S - Vrijstaande wasdroger 11 kg A++ wit</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>amazon.de</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>10133546</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Besteye </t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Besteye Fitness Boxing: Fist Of The North Star - DE (Switch)</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Besteye Boxe Fitness : Le Poing de l'Étoile du Nord - DE (Switch)</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Besteye Fitness Boxing: Fist Of The North Star – DE (Switch)</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Besteye Fitness Boxing: Fist Of The North Star - DE (Switch)</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>amazon.de</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>10103732</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Uwant D100 - 干湿两用吸尘器 - 17000Pa吸力 电解水杀菌 LED显示 自清洁</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Uwant D100 - Wet &amp; Dry Vacuum Cleaner - 17,000Pa Suction LED Sterilization Self-Cleaning</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Uwant D100 - Aspirateur Sec et Humide - 17 000Pa LED Stérilisation Auto-nettoyage</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Uwant D100 - Nass- und Trockensauger - 17.000Pa LED Sterilisation Selbstreinigung</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Uwant D100 - Nat- en Droogstofzuiger - 17.000Pa Zuigkracht LED Sterilisatie Zelfreinigend</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>amazon.de</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>not found</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>10134428</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>SONGMICS RYG036B02 开放式衣柜，衣架，43 x 151 x 166 厘米，4 个挂衣隔间</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>SONGMICS RYG036B02 Open Wardrobe, Clothes Rail, 43 x 151 x 166 cm, 4 Hanging Compartments, Large Spa</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>SONGMICS RYG036B02 Offener Kleiderschrank, Kleiderstange, 43 x 151 x 166 cm, 4 Hängeabteile, Großes Spa-Design</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>amazon.de</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>https://www.amazon.de/SONGMICS-Kleiderschrank-Kleiderst%C3%A4nder-Kleiderstange-Schlafzimmer/dp/B09NLX76VC</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>10134478</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Pril敏感型 芦荟 450毫升</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Pril Sensitive Aloe Vera 450ml</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Pril Sensible Aloe Vera 450ml</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Pril Sensitive Aloe Vera 450ml</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Pril Sensitive Aloë Vera 450 ml</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>amazon.de</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>https://www.amazon.de/-/en/Sensitive-Dishwashing-Dissolving-Skin-friendly-Washing/dp/B08L946B42</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>10107878</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>RFID 智能宠物猫狗喂食器自动CATLINK-F03 white</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Catlink RFID Pet FeederCATLINK-F03 white</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Catlink Distributeur de nourriture RFID CATLINK-F03 blanc</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Catlink RFID-Futterautomat CATLINK-F03 weiß</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Catlink RFID Pet FeederCATLINK-F03 white</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>amazon.de</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>https://www.amazon.de/CATLINK-Katzengesundheitsbericht-Fassungsverm%C3%B6gen-zeitgesteuerte-Katzenfutterausgabe/dp/B0D7HHYQVL</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>10119531</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>智能猫砂盆猫厕所宠物 Baymax white</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Catlink Baymax white</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Catlink Baymax blanc</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Catlink Baymax weiß</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Catlink Baymax white</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>amazon.de</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>https://www.amazon.de/Baymax-selbstreinigende-Fassungsverm%C3%B6gen-Katzentoilette-Mehrkatzenhaushalt/dp/B0D1JSF5YJ</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>10328301</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>MAM初生安抚奶嘴夜用硅胶0-6个月2个装</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>MAM Original Night Silicone Pacifier 0–6 months 2 pcs</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>MAM Original Beruhigungssauger Night Silikon 0-6 Monate 2 Stück</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>amazon.de</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>https://www.amazon.de/MAM-Night-Silikon-0-6-Monate/dp/B000N3YPZ0</t>
         </is>
       </c>
     </row>
